--- a/hotkey_design.xlsx
+++ b/hotkey_design.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="analyze" sheetId="1" r:id="rId1"/>
+    <sheet name="position" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="190">
   <si>
     <t>a</t>
   </si>
@@ -110,24 +110,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>m-up</t>
-  </si>
-  <si>
-    <t>m-down</t>
-  </si>
-  <si>
-    <t>m-left</t>
-  </si>
-  <si>
-    <t>m-right</t>
-  </si>
-  <si>
-    <t>complex-value</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -480,17 +462,181 @@
   </si>
   <si>
     <t xml:space="preserve">Selection </t>
+  </si>
+  <si>
+    <t>command usage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which key is easy to click</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand positioin + move up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand position + move down</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand position + move left</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand position + right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left hand or Right hand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>backspace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>undo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition key 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIM operation setting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -498,12 +644,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +695,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -580,20 +759,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -620,22 +820,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="28">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -654,12 +901,95 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -700,21 +1030,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="27" headerRowBorderDxfId="14">
+  <autoFilter ref="A3:H34"/>
   <sortState ref="A2:H32">
     <sortCondition ref="H1:H32"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="name" dataDxfId="12"/>
-    <tableColumn id="8" name="LR" dataDxfId="11"/>
-    <tableColumn id="2" name="pinkie" dataDxfId="10"/>
-    <tableColumn id="3" name="m-up" dataDxfId="9"/>
-    <tableColumn id="4" name="m-down" dataDxfId="8"/>
-    <tableColumn id="5" name="m-left" dataDxfId="7"/>
-    <tableColumn id="6" name="m-right" dataDxfId="6"/>
-    <tableColumn id="7" name="complex-value" dataDxfId="5">
-      <calculatedColumnFormula>C2+D2+E2*1.5+F2+G2+IF(B2="L",0.5,0)</calculatedColumnFormula>
+    <tableColumn id="1" name="name" dataDxfId="26"/>
+    <tableColumn id="8" name="Left hand or Right hand" dataDxfId="25"/>
+    <tableColumn id="2" name="pinkie" dataDxfId="24"/>
+    <tableColumn id="3" name="stand positioin + move up" dataDxfId="23"/>
+    <tableColumn id="4" name="stand position + move down" dataDxfId="22"/>
+    <tableColumn id="5" name="stand position + move left" dataDxfId="21"/>
+    <tableColumn id="6" name="stand position + right" dataDxfId="20"/>
+    <tableColumn id="7" name="complexity" dataDxfId="19">
+      <calculatedColumnFormula>C4+D4+E4*1.5+F4+G4+IF(B4="L",0.5,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -722,17 +1052,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K1:M32" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="K1:M32"/>
-  <sortState ref="K2:M32">
-    <sortCondition descending="1" ref="M1:M32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J3:N34" totalsRowShown="0" headerRowDxfId="2" dataDxfId="18" headerRowBorderDxfId="3">
+  <autoFilter ref="J3:N34"/>
+  <sortState ref="J2:N32">
+    <sortCondition descending="1" ref="N1:N32"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Glyph" dataDxfId="2"/>
-    <tableColumn id="2" name="Command Name" dataDxfId="1"/>
-    <tableColumn id="3" name="%" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Glyph" dataDxfId="17"/>
+    <tableColumn id="4" name="operation" dataDxfId="12"/>
+    <tableColumn id="5" name="object" dataDxfId="11"/>
+    <tableColumn id="2" name="Command Name" dataDxfId="16"/>
+    <tableColumn id="3" name="%" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P3:U23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="1">
+  <autoFilter ref="P3:U23"/>
+  <sortState ref="P4:U23">
+    <sortCondition ref="U3:U23"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="key" dataDxfId="10"/>
+    <tableColumn id="2" name="addition key" dataDxfId="9"/>
+    <tableColumn id="3" name="addition key 2" dataDxfId="8"/>
+    <tableColumn id="4" name="operator" dataDxfId="7"/>
+    <tableColumn id="5" name="object" dataDxfId="6"/>
+    <tableColumn id="6" name="complexity" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1023,265 +1373,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="52.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.125" style="1"/>
+    <col min="17" max="17" width="14.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="1"/>
+    <col min="21" max="21" width="12.75" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="J2" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="P2" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+    </row>
+    <row r="3" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H34" si="0">C4+D4+E4*1.5+F4+G4+IF(B4="L",0.5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H32" si="0">C2+D2+E2*1.5+F2+G2+IF(B2="L",0.5,0)</f>
+      <c r="N4" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U4" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="4">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3">
         <v>15.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="3">
         <v>6.19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="4">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="4">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="4">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5.51</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1290,143 +1780,262 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="4">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="G13" s="1">
+      <c r="J12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="4">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="1">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1435,46 +2044,88 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1483,71 +2134,124 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="P19" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="4">
-        <f>(0.74+0.32)/2</f>
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1556,22 +2260,46 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1580,71 +2308,99 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="3">
+        <f>(0.74+0.32)/2</f>
+        <v>0.53</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="4" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M24" s="4">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M25" s="4">
-        <f>(0.15+0.65)/2</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1653,76 +2409,83 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="3">
+        <f>(0.15+0.65)/2</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1732,78 +2495,96 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1813,24 +2594,97 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="4">
+      <c r="J33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="3">
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="P2:U2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1839,230 +2693,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="J6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="18" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="E8" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="F8" s="22" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G8" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/hotkey_design.xlsx
+++ b/hotkey_design.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="3705" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="analyze" sheetId="1" r:id="rId1"/>
     <sheet name="position" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="234">
   <si>
     <t>a</t>
   </si>
@@ -311,9 +312,6 @@
     <t>write-file</t>
   </si>
   <si>
-    <t>select to Line begin</t>
-  </si>
-  <si>
     <t>select to Left word</t>
   </si>
   <si>
@@ -323,36 +321,6 @@
     <t>select current line</t>
   </si>
   <si>
-    <t>selec to Line end</t>
-  </si>
-  <si>
-    <t>move to Left word</t>
-  </si>
-  <si>
-    <t>move down</t>
-  </si>
-  <si>
-    <t>move up</t>
-  </si>
-  <si>
-    <t>move to Line end</t>
-  </si>
-  <si>
-    <t>move to Line begin</t>
-  </si>
-  <si>
-    <t>move 5 lines down</t>
-  </si>
-  <si>
-    <t>move 5 lines up</t>
-  </si>
-  <si>
-    <t>move to Right char</t>
-  </si>
-  <si>
-    <t>move to Left char</t>
-  </si>
-  <si>
     <t>backspace</t>
   </si>
   <si>
@@ -371,15 +339,9 @@
     <t>select all</t>
   </si>
   <si>
-    <t>delete last char of current line</t>
-  </si>
-  <si>
     <t xml:space="preserve">delete first char of current line </t>
   </si>
   <si>
-    <t>backspace a word</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -455,12 +417,6 @@
     <t>normal operation</t>
   </si>
   <si>
-    <t>special operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move </t>
-  </si>
-  <si>
     <t xml:space="preserve">Selection </t>
   </si>
   <si>
@@ -626,17 +582,194 @@
   <si>
     <t>VIM operation setting</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic move </t>
+  </si>
+  <si>
+    <t>line operation</t>
+  </si>
+  <si>
+    <t>word left</t>
+  </si>
+  <si>
+    <t>line begin</t>
+  </si>
+  <si>
+    <t>line down</t>
+  </si>
+  <si>
+    <t>line up</t>
+  </si>
+  <si>
+    <t>word right</t>
+  </si>
+  <si>
+    <t>line end</t>
+  </si>
+  <si>
+    <t>char right</t>
+  </si>
+  <si>
+    <t>5 line up</t>
+  </si>
+  <si>
+    <t>5 line down</t>
+  </si>
+  <si>
+    <t>char left</t>
+  </si>
+  <si>
+    <t>3 word right</t>
+  </si>
+  <si>
+    <t>3 word left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete first char </t>
+  </si>
+  <si>
+    <t>delete last char</t>
+  </si>
+  <si>
+    <t>delete line</t>
+  </si>
+  <si>
+    <t>delete to begin</t>
+  </si>
+  <si>
+    <t>delete to end</t>
+  </si>
+  <si>
+    <t>copy line</t>
+  </si>
+  <si>
+    <t>copy to begin</t>
+  </si>
+  <si>
+    <t>copy to end</t>
+  </si>
+  <si>
+    <t>new line down</t>
+  </si>
+  <si>
+    <t>new line up</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>outer</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>3 next</t>
+  </si>
+  <si>
+    <t>3 pre</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>3 w</t>
+  </si>
+  <si>
+    <t>line begin delete</t>
+  </si>
+  <si>
+    <t>de-select</t>
+  </si>
+  <si>
+    <t>line delete</t>
+  </si>
+  <si>
+    <t>3 word</t>
+  </si>
+  <si>
+    <t>word select</t>
+  </si>
+  <si>
+    <t>line move</t>
+  </si>
+  <si>
+    <t>edit state</t>
+  </si>
+  <si>
+    <t>char move</t>
+  </si>
+  <si>
+    <t>3 line move</t>
+  </si>
+  <si>
+    <t>word move</t>
+  </si>
+  <si>
+    <t>line select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line </t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>line end delete</t>
+  </si>
+  <si>
+    <t>select line end</t>
+  </si>
+  <si>
+    <t>select to line begin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -644,7 +777,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -652,19 +785,25 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,8 +852,44 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -783,11 +958,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -807,7 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -820,12 +1046,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -835,17 +1055,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,11 +1083,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -876,6 +1161,24 @@
           <color theme="0"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -919,76 +1222,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
@@ -1016,6 +1249,30 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1030,20 +1287,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="27" headerRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H34" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="A3:H34"/>
   <sortState ref="A2:H32">
     <sortCondition ref="H1:H32"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="name" dataDxfId="26"/>
-    <tableColumn id="8" name="Left hand or Right hand" dataDxfId="25"/>
-    <tableColumn id="2" name="pinkie" dataDxfId="24"/>
-    <tableColumn id="3" name="stand positioin + move up" dataDxfId="23"/>
-    <tableColumn id="4" name="stand position + move down" dataDxfId="22"/>
-    <tableColumn id="5" name="stand position + move left" dataDxfId="21"/>
-    <tableColumn id="6" name="stand position + right" dataDxfId="20"/>
-    <tableColumn id="7" name="complexity" dataDxfId="19">
+    <tableColumn id="1" name="name" dataDxfId="24"/>
+    <tableColumn id="8" name="Left hand or Right hand" dataDxfId="23"/>
+    <tableColumn id="2" name="pinkie" dataDxfId="22"/>
+    <tableColumn id="3" name="stand positioin + move up" dataDxfId="21"/>
+    <tableColumn id="4" name="stand position + move down" dataDxfId="20"/>
+    <tableColumn id="5" name="stand position + move left" dataDxfId="19"/>
+    <tableColumn id="6" name="stand position + right" dataDxfId="18"/>
+    <tableColumn id="7" name="complexity" dataDxfId="17">
       <calculatedColumnFormula>C4+D4+E4*1.5+F4+G4+IF(B4="L",0.5,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1052,35 +1309,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J3:N34" totalsRowShown="0" headerRowDxfId="2" dataDxfId="18" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="J3:N34" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
   <autoFilter ref="J3:N34"/>
   <sortState ref="J2:N32">
     <sortCondition descending="1" ref="N1:N32"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Glyph" dataDxfId="17"/>
+    <tableColumn id="1" name="Glyph" dataDxfId="13"/>
     <tableColumn id="4" name="operation" dataDxfId="12"/>
     <tableColumn id="5" name="object" dataDxfId="11"/>
-    <tableColumn id="2" name="Command Name" dataDxfId="16"/>
-    <tableColumn id="3" name="%" dataDxfId="15"/>
+    <tableColumn id="2" name="Command Name" dataDxfId="10"/>
+    <tableColumn id="3" name="%" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P3:U23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P3:U23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="P3:U23"/>
   <sortState ref="P4:U23">
     <sortCondition ref="U3:U23"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="key" dataDxfId="10"/>
-    <tableColumn id="2" name="addition key" dataDxfId="9"/>
-    <tableColumn id="3" name="addition key 2" dataDxfId="8"/>
-    <tableColumn id="4" name="operator" dataDxfId="7"/>
-    <tableColumn id="5" name="object" dataDxfId="6"/>
-    <tableColumn id="6" name="complexity" dataDxfId="5"/>
+    <tableColumn id="1" name="key" dataDxfId="5"/>
+    <tableColumn id="2" name="addition key" dataDxfId="4"/>
+    <tableColumn id="3" name="addition key 2" dataDxfId="3"/>
+    <tableColumn id="4" name="operator" dataDxfId="2"/>
+    <tableColumn id="5" name="object" dataDxfId="1"/>
+    <tableColumn id="6" name="complexity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1129,7 +1386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1164,7 +1421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1375,122 +1632,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1"/>
-    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="52.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.125" style="1"/>
-    <col min="17" max="17" width="14.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.125" style="1"/>
-    <col min="21" max="21" width="12.75" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.125" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="52.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="J2" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="P2" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="J2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="P2" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+    </row>
+    <row r="3" spans="1:21" ht="27.75" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="33" t="s">
+      <c r="D3" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="Q3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T3" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1505,10 +1762,10 @@
         <v>40</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>41</v>
@@ -1517,19 +1774,19 @@
         <v>17.100000000000001</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,10 +1801,10 @@
         <v>38</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>39</v>
@@ -1556,19 +1813,19 @@
         <v>15.48</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1583,10 +1840,10 @@
         <v>52</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>53</v>
@@ -1595,19 +1852,19 @@
         <v>6.19</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1622,10 +1879,10 @@
         <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>51</v>
@@ -1634,19 +1891,19 @@
         <v>5.51</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1661,10 +1918,10 @@
         <v>44</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>45</v>
@@ -1673,19 +1930,19 @@
         <v>4.7</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1700,10 +1957,10 @@
         <v>42</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>43</v>
@@ -1712,19 +1969,19 @@
         <v>3.23</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1742,10 +1999,10 @@
         <v>66</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>67</v>
@@ -1754,19 +2011,19 @@
         <v>3.12</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1784,10 +2041,10 @@
         <v>48</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>49</v>
@@ -1796,19 +2053,19 @@
         <v>1.8</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1826,10 +2083,10 @@
         <v>68</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>69</v>
@@ -1838,22 +2095,22 @@
         <v>1.68</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U12" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +2128,7 @@
         <v>82</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
@@ -1881,22 +2138,22 @@
         <v>1.36</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U13" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +2171,7 @@
         <v>94</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
@@ -1924,22 +2181,22 @@
         <v>1.29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U14" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1958,10 +2215,10 @@
         <v>76</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>77</v>
@@ -1970,22 +2227,22 @@
         <v>1.18</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,10 +2260,10 @@
         <v>60</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>61</v>
@@ -2015,22 +2272,22 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2048,10 +2305,10 @@
         <v>72</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>73</v>
@@ -2060,22 +2317,22 @@
         <v>0.87</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2093,10 +2350,10 @@
         <v>56</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>57</v>
@@ -2105,22 +2362,22 @@
         <v>0.78</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="U18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2149,19 +2406,19 @@
         <v>6</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2190,19 +2447,19 @@
         <v>4</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2228,25 +2485,25 @@
         <v>0.63</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="U21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2264,10 +2521,10 @@
         <v>74</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>75</v>
@@ -2276,25 +2533,25 @@
         <v>0.62</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="U22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2321,25 +2578,25 @@
         <v>0.53</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="U23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2357,7 +2614,7 @@
         <v>87</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
@@ -2367,7 +2624,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2385,7 +2642,7 @@
         <v>78</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
@@ -2395,7 +2652,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2413,7 +2670,7 @@
         <v>80</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
@@ -2423,7 +2680,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2450,7 +2707,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2468,10 +2725,10 @@
         <v>54</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>55</v>
@@ -2480,7 +2737,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -2501,10 +2758,10 @@
         <v>62</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>63</v>
@@ -2513,7 +2770,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2534,10 +2791,10 @@
         <v>64</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>65</v>
@@ -2546,7 +2803,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -2567,10 +2824,10 @@
         <v>46</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>47</v>
@@ -2579,7 +2836,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -2600,7 +2857,7 @@
         <v>70</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
@@ -2610,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2631,7 +2888,7 @@
         <v>84</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
@@ -2641,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,7 +2919,7 @@
         <v>96</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
@@ -2691,234 +2948,836 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.5" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="F10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="G10" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="H10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" ht="40.5" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="I18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G20" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="H20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="7"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="40"/>
+      <c r="C1" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" s="50"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="65">
+        <v>1</v>
+      </c>
+      <c r="G4" s="65">
+        <v>1</v>
+      </c>
+      <c r="H4" s="66">
+        <v>2</v>
+      </c>
+      <c r="I4" s="66">
+        <v>2</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="66">
+        <v>2</v>
+      </c>
+      <c r="N4" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="66">
+        <v>2</v>
+      </c>
+      <c r="D5" s="66">
+        <v>2</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="65">
+        <v>1</v>
+      </c>
+      <c r="G5" s="65">
+        <v>1</v>
+      </c>
+      <c r="H5" s="66">
+        <v>2</v>
+      </c>
+      <c r="I5" s="66">
+        <v>2</v>
+      </c>
+      <c r="J5" s="44">
+        <v>2</v>
+      </c>
+      <c r="K5" s="44">
+        <v>2</v>
+      </c>
+      <c r="L5" s="66">
+        <v>2</v>
+      </c>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="65">
+        <v>1</v>
+      </c>
+      <c r="G6" s="65">
+        <v>1</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="7"/>
+      <c r="C13" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="56"/>
+    </row>
+    <row r="17" spans="6:10">
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
+      <c r="G18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10">
+      <c r="F19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10">
+      <c r="G20" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10">
+      <c r="G21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>